--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-615241.3968311538</v>
+        <v>-618121.7716449824</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9777368.694373149</v>
+        <v>9777368.694373151</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>133.8494485492759</v>
+        <v>281.148383571488</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>105.4853192049618</v>
       </c>
       <c r="V2" t="n">
-        <v>151.7445108452758</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>122.5935461816079</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>182.8258003202642</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>183.6685905390685</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>139.1167657621997</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>107.8232201722642</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>124.5839165925497</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>307.035212564464</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.8056357146082</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>47.14167849255939</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>141.6178196669931</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>282.1904795138512</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>303.1555263988971</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>59.20620029662044</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081959</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5334944185044</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.804576744409</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108353</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>26.24710713841734</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>8.172193132421144</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440903</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>192.6099141660354</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>66.74877385786762</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440903</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>53.77775396254419</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2296,7 +2296,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081974</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561458</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>97.81699501418866</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.119387955707482</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108366</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>100.7815116657745</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>94.80184639741351</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>104.1233804225859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>124.6209519256076</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.361190545018</v>
+        <v>1302.094785508362</v>
       </c>
       <c r="C2" t="n">
-        <v>728.3986736046058</v>
+        <v>1302.094785508362</v>
       </c>
       <c r="D2" t="n">
-        <v>728.3986736046058</v>
+        <v>1302.094785508362</v>
       </c>
       <c r="E2" t="n">
-        <v>342.6104210063615</v>
+        <v>916.3065329101177</v>
       </c>
       <c r="F2" t="n">
-        <v>342.6104210063615</v>
+        <v>909.3610321609142</v>
       </c>
       <c r="G2" t="n">
-        <v>342.6104210063615</v>
+        <v>491.3972240591011</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2359.392086383126</v>
       </c>
       <c r="V2" t="n">
-        <v>1840.269177790943</v>
+        <v>2028.329199039556</v>
       </c>
       <c r="W2" t="n">
-        <v>1487.500522520829</v>
+        <v>1675.560543769442</v>
       </c>
       <c r="X2" t="n">
-        <v>1487.500522520829</v>
+        <v>1302.094785508362</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.361190545018</v>
+        <v>1302.094785508362</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>543.4564586304098</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.6780100036603</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="C5" t="n">
-        <v>604.6780100036603</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="D5" t="n">
-        <v>246.4123113969098</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="E5" t="n">
-        <v>246.4123113969098</v>
+        <v>946.5689962537617</v>
       </c>
       <c r="F5" t="n">
-        <v>239.4668106477064</v>
+        <v>535.5830914641542</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>521.6596874027451</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>194.464967438748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>991.2778500677821</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,10 +4644,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598706</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>513.8405610245972</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>344.8407607629296</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245972</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1520.223993023726</v>
+        <v>2091.914583926164</v>
       </c>
       <c r="C8" t="n">
-        <v>1520.223993023726</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1337.163814387508</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>926.1779095979002</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>508.2141014960871</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>181.0193815320899</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284805</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284805</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X8" t="n">
-        <v>1520.223993023726</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1520.223993023726</v>
+        <v>2478.514423990286</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>546.4805193761949</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027575</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2372.503670393389</v>
+        <v>2288.582041850806</v>
       </c>
       <c r="C11" t="n">
         <v>2003.541153452977</v>
@@ -5039,19 +5039,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>282.7274791106324</v>
+        <v>282.7274791106325</v>
       </c>
       <c r="K11" t="n">
-        <v>701.0381742763504</v>
+        <v>616.546852800479</v>
       </c>
       <c r="L11" t="n">
-        <v>1152.072387524759</v>
+        <v>1481.065668453834</v>
       </c>
       <c r="M11" t="n">
-        <v>2130.622690354588</v>
+        <v>2459.615971283662</v>
       </c>
       <c r="N11" t="n">
-        <v>3110.374962581234</v>
+        <v>3439.368243510309</v>
       </c>
       <c r="O11" t="n">
         <v>3990.339612910689</v>
@@ -5084,7 +5084,7 @@
         <v>3065.32121389074</v>
       </c>
       <c r="Y11" t="n">
-        <v>2759.103510457511</v>
+        <v>2675.181881914928</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>968.8800862005319</v>
+        <v>968.8800862005314</v>
       </c>
       <c r="C12" t="n">
-        <v>794.4270569194049</v>
+        <v>794.4270569194044</v>
       </c>
       <c r="D12" t="n">
-        <v>645.4926472581537</v>
+        <v>645.4926472581533</v>
       </c>
       <c r="E12" t="n">
-        <v>486.2551922526982</v>
+        <v>486.2551922526977</v>
       </c>
       <c r="F12" t="n">
-        <v>339.7206342795832</v>
+        <v>339.7206342795828</v>
       </c>
       <c r="G12" t="n">
         <v>203.3575341122016</v>
@@ -5115,19 +5115,19 @@
         <v>112.8556397500691</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
         <v>187.5256176422243</v>
       </c>
       <c r="K12" t="n">
-        <v>425.7898166225714</v>
+        <v>425.7898166225715</v>
       </c>
       <c r="L12" t="n">
-        <v>792.4879769352367</v>
+        <v>792.4879769352366</v>
       </c>
       <c r="M12" t="n">
-        <v>1239.764302157553</v>
+        <v>1239.764302157552</v>
       </c>
       <c r="N12" t="n">
         <v>1713.287345712007</v>
@@ -5139,7 +5139,7 @@
         <v>2434.748216606165</v>
       </c>
       <c r="Q12" t="n">
-        <v>2592.389774252765</v>
+        <v>2592.389774252764</v>
       </c>
       <c r="R12" t="n">
         <v>2592.24542084528</v>
@@ -5148,7 +5148,7 @@
         <v>2462.80753433876</v>
       </c>
       <c r="T12" t="n">
-        <v>2270.164534016616</v>
+        <v>2270.164534016615</v>
       </c>
       <c r="U12" t="n">
         <v>2042.096687151031</v>
@@ -5157,10 +5157,10 @@
         <v>1806.944578919288</v>
       </c>
       <c r="W12" t="n">
-        <v>1552.707222191087</v>
+        <v>1552.707222191086</v>
       </c>
       <c r="X12" t="n">
-        <v>1344.855721985554</v>
+        <v>1344.855721985553</v>
       </c>
       <c r="Y12" t="n">
         <v>1137.0954232206</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.7882389624543</v>
+        <v>1118.949912161231</v>
       </c>
       <c r="C13" t="n">
-        <v>711.7882389624543</v>
+        <v>950.0137292333242</v>
       </c>
       <c r="D13" t="n">
-        <v>711.7882389624543</v>
+        <v>799.8970898209884</v>
       </c>
       <c r="E13" t="n">
         <v>651.9839962385953</v>
@@ -5200,10 +5200,10 @@
         <v>138.9709805985426</v>
       </c>
       <c r="K13" t="n">
-        <v>342.9581635474188</v>
+        <v>342.958163547419</v>
       </c>
       <c r="L13" t="n">
-        <v>659.5179619959149</v>
+        <v>659.5179619959151</v>
       </c>
       <c r="M13" t="n">
         <v>1003.675007595464</v>
@@ -5215,7 +5215,7 @@
         <v>1644.412983221742</v>
       </c>
       <c r="P13" t="n">
-        <v>1877.020483655401</v>
+        <v>1877.020483655402</v>
       </c>
       <c r="Q13" t="n">
         <v>1954.630779807916</v>
@@ -5227,22 +5227,22 @@
         <v>1954.630779807916</v>
       </c>
       <c r="T13" t="n">
-        <v>1954.630779807916</v>
+        <v>1749.380507033018</v>
       </c>
       <c r="U13" t="n">
-        <v>1665.527912933559</v>
+        <v>1749.380507033018</v>
       </c>
       <c r="V13" t="n">
-        <v>1410.843424727672</v>
+        <v>1749.380507033018</v>
       </c>
       <c r="W13" t="n">
-        <v>1121.426254690711</v>
+        <v>1749.380507033018</v>
       </c>
       <c r="X13" t="n">
-        <v>893.4367037926941</v>
+        <v>1521.390956135001</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.4367037926941</v>
+        <v>1300.598376991471</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5276,28 +5276,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384021</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052816</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5355,25 +5355,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953585</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247486</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>897.9446874942879</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C16" t="n">
-        <v>729.008504566381</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D16" t="n">
-        <v>578.8918651540453</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E16" t="n">
-        <v>430.9787715716521</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F16" t="n">
-        <v>284.0888240737418</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G16" t="n">
-        <v>284.0888240737418</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948591</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294193</v>
       </c>
       <c r="S16" t="n">
-        <v>2361.553154294196</v>
+        <v>2335.040924861448</v>
       </c>
       <c r="T16" t="n">
-        <v>2361.553154294196</v>
+        <v>2335.040924861448</v>
       </c>
       <c r="U16" t="n">
-        <v>2072.476940608923</v>
+        <v>2045.964711176174</v>
       </c>
       <c r="V16" t="n">
-        <v>1817.792452403036</v>
+        <v>1791.280222970287</v>
       </c>
       <c r="W16" t="n">
-        <v>1528.375282366075</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="X16" t="n">
-        <v>1300.385731468058</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1079.593152324528</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
@@ -5525,16 +5525,16 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5595,22 +5595,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K18" t="n">
-        <v>243.9627910411621</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L18" t="n">
-        <v>734.6951238849133</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849133</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>965.8040325357866</v>
+        <v>809.6361984155943</v>
       </c>
       <c r="C19" t="n">
-        <v>796.8678496078797</v>
+        <v>640.7000154876874</v>
       </c>
       <c r="D19" t="n">
-        <v>646.751210195544</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="E19" t="n">
-        <v>498.8381166131509</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F19" t="n">
-        <v>351.9481691152405</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G19" t="n">
-        <v>184.7339742898193</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H19" t="n">
         <v>176.4792337520202</v>
@@ -5680,43 +5680,43 @@
         <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294193</v>
       </c>
       <c r="S19" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033123</v>
       </c>
       <c r="T19" t="n">
-        <v>2429.412499335695</v>
+        <v>1983.827495178542</v>
       </c>
       <c r="U19" t="n">
-        <v>2140.336285650421</v>
+        <v>1694.751281493268</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.651797444534</v>
+        <v>1440.066793287381</v>
       </c>
       <c r="W19" t="n">
-        <v>1596.234627407574</v>
+        <v>1440.066793287381</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.245076509556</v>
+        <v>1212.077242389364</v>
       </c>
       <c r="Y19" t="n">
-        <v>1147.452497366026</v>
+        <v>991.2846632458341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,13 +5738,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
@@ -5795,7 +5795,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5841,13 @@
         <v>1654.75575956269</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.851722962027</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O21" t="n">
-        <v>2276.851722962027</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599890988</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C22" t="n">
-        <v>394.0188770611919</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D22" t="n">
-        <v>243.9022376488562</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E22" t="n">
-        <v>243.9022376488562</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F22" t="n">
-        <v>243.9022376488562</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
-        <v>243.9022376488562</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
         <v>176.4792337520202</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2307.232190695666</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>2087.553408410048</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103734</v>
+        <v>1798.477194724775</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897847</v>
+        <v>1798.477194724775</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860886</v>
+        <v>1509.060024687814</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628687</v>
+        <v>1281.070473789797</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193385</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,64 +5975,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160724</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384009</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944175</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883211</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800317</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>142.676769632788</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>142.676769632788</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849149</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.79108728425</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
         <v>1903.667562284444</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>967.6830752456282</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>798.7468923177213</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D25" t="n">
-        <v>648.6302529053855</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E25" t="n">
-        <v>549.8252074365081</v>
+        <v>95.98914406646307</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>95.98914406646307</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>95.98914406646307</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>95.98914406646307</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411608</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117242</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948581</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139317</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931024</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946053</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782257</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335692</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294194</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2361.553154294194</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>2141.874372008575</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>1852.798158323302</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>1598.113670117415</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1598.113670117415</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1370.124119219398</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>1149.331540075868</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6251,13 +6251,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367897</v>
+        <v>651.5752442188636</v>
       </c>
       <c r="E28" t="n">
-        <v>484.2179484367897</v>
+        <v>503.6621506364705</v>
       </c>
       <c r="F28" t="n">
-        <v>337.3280009388793</v>
+        <v>356.7722031385601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>189.5761038534401</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,22 +6543,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
         <v>506.2737913123336</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7564,52 +7564,52 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7786,55 +7786,55 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>85.3447691675471</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>48.48373587984088</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782908804</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782909614</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>190.0733242150813</v>
+        <v>42.77438919286914</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>83.08241225715631</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.08241225715648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>87.22776234994873</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>16.35117922901983</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>33.9204953734495</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>155.0913812200416</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>132.2817966595328</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>24.87208029672638</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>73.7052159340863</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>127.5607343959148</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>48.61696763238051</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440909</v>
+        <v>79.68518878870155</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>64.74262662649436</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>45.49286644881035</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>42.31058222398332</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.5245049809784</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>40.9031863666612</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1174632.177305596</v>
+        <v>1174632.177305595</v>
       </c>
     </row>
     <row r="13">
@@ -26323,7 +26323,7 @@
         <v>236265.064127489</v>
       </c>
       <c r="F2" t="n">
-        <v>242004.8931355677</v>
+        <v>242004.8931355678</v>
       </c>
       <c r="G2" t="n">
         <v>242004.8931355677</v>
@@ -26332,22 +26332,22 @@
         <v>242004.8931355677</v>
       </c>
       <c r="I2" t="n">
-        <v>242004.8931355678</v>
+        <v>242004.8931355677</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>720985.2833793794</v>
+        <v>720985.2833793792</v>
       </c>
       <c r="F3" t="n">
-        <v>212048.2126521543</v>
+        <v>212048.2126521537</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792236</v>
+        <v>183669.0093792227</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>143734.929383769</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>23899.7655658563</v>
+        <v>23899.76556585628</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855075</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855176</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855187</v>
+        <v>5781.971894855128</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670396</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476387</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="O4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="P4" t="n">
         <v>13058.4518647639</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>95081.87666815522</v>
+        <v>95081.87666815524</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-598150.0278097598</v>
+        <v>-598421.7457094978</v>
       </c>
       <c r="C6" t="n">
-        <v>-37611.05303185608</v>
+        <v>-37611.05303185611</v>
       </c>
       <c r="D6" t="n">
-        <v>-37611.05303185614</v>
+        <v>-37611.05303185611</v>
       </c>
       <c r="E6" t="n">
-        <v>-603701.861485902</v>
+        <v>-603785.5903761667</v>
       </c>
       <c r="F6" t="n">
-        <v>-76755.33086868019</v>
+        <v>-76791.22785054387</v>
       </c>
       <c r="G6" t="n">
-        <v>135292.8817834744</v>
+        <v>135256.9848016098</v>
       </c>
       <c r="H6" t="n">
-        <v>135292.881783474</v>
+        <v>135256.9848016097</v>
       </c>
       <c r="I6" t="n">
-        <v>135292.8817834749</v>
+        <v>135256.9848016097</v>
       </c>
       <c r="J6" t="n">
-        <v>-47715.15189779932</v>
+        <v>-47749.88982323411</v>
       </c>
       <c r="K6" t="n">
-        <v>135953.8574814245</v>
+        <v>135919.1195559887</v>
       </c>
       <c r="L6" t="n">
-        <v>135953.8574814243</v>
+        <v>135919.1195559886</v>
       </c>
       <c r="M6" t="n">
-        <v>-13644.96614316339</v>
+        <v>-13644.96614316342</v>
       </c>
       <c r="N6" t="n">
-        <v>130089.9632406053</v>
+        <v>130089.9632406055</v>
       </c>
       <c r="O6" t="n">
         <v>130089.9632406057</v>
       </c>
       <c r="P6" t="n">
-        <v>130089.9632406058</v>
+        <v>130089.9632406057</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>268.264348123088</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.857070098556303e-14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625289512</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405323</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405323</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405323</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>145.7388483033275</v>
       </c>
       <c r="V2" t="n">
-        <v>176.0077476248591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>44.6532749170199</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>103.6971980163268</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>230.1155794817265</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>12.81455048266156</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>48.3476686695309</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>161.6979576494281</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.647829056219</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>26.12568053025296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>144.6640545749846</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-3.205021433435225e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-3.205021433435225e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377427</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122284</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874066</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830432</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364266</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293311</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.145364522961</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086955</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687526</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148608</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540906</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745726</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504303</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>313.3538858578405</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426206</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982455</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,40 +32148,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548568</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284928</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900887</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.088578864062</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265023</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416876</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465964</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282425</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561743</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>289.472189367849</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32561,16 +32561,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>413.7326212867947</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377421</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122277</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704057</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874061</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830424</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364255</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293299</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229599</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086944</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687517</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148601</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987159</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854256</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665717</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901936</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540903</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088188</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>187.1630768341378</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504294</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927631</v>
+        <v>428.3656332688752</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426198</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982449</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286949</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862155</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013752</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291841</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548565</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284919</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273331</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900883</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640615</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265019</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416871</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465959</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282421</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.064198356174</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851324</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704642</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33263,25 +33263,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>555.1777416630679</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>422.5360557229475</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>556.53673676806</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607203</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380627</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020584</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870087</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404113</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136723</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946984</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>182.0121737745072</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981762</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839153</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066055</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883395</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>796.0449487554608</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
         <v>689.7596327870084</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>151.63075039349</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883395</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
@@ -36209,16 +36209,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>279.7582138724644</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607198</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380619</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664384</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020572</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263689</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>741.0722806161037</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134821</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404106</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845838</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>49.32163785977878</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.998337628411</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094298</v>
+        <v>297.0239211855419</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981754</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839146</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426734</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066035</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642055</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243777</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883424</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209157</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606356</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931356</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,25 +36911,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>416.6233618831937</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
